--- a/Data prototype Renault.xlsx
+++ b/Data prototype Renault.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Histo_Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>Variable</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Anomalie</t>
   </si>
   <si>
-    <t>Météo</t>
-  </si>
-  <si>
     <t>Pluie</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Neige</t>
   </si>
   <si>
-    <t>Grêle</t>
-  </si>
-  <si>
     <t>&lt;1000</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>&gt; 1 000 000</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>1980-1985</t>
   </si>
   <si>
@@ -295,9 +286,6 @@
     <t>Vitesse_excessive</t>
   </si>
   <si>
-    <t>Relief_montagneux</t>
-  </si>
-  <si>
     <t>Importance</t>
   </si>
   <si>
@@ -341,6 +329,21 @@
   </si>
   <si>
     <t>Faible</t>
+  </si>
+  <si>
+    <t>Usure_pieces</t>
+  </si>
+  <si>
+    <t>Condition météo</t>
+  </si>
+  <si>
+    <t>Date de frabrication</t>
+  </si>
+  <si>
+    <t>Accident grave</t>
+  </si>
+  <si>
+    <t>Accident léger</t>
   </si>
 </sst>
 </file>
@@ -660,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -678,24 +679,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0.15169772546821728</v>
@@ -716,7 +717,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>5.9782354864322072E-3</v>
@@ -737,7 +738,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>7.5848862734108638E-2</v>
@@ -758,7 +759,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>4.2034468263976457E-2</v>
@@ -779,7 +780,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>1.4945588716080518E-3</v>
@@ -800,7 +801,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1.0555322030731866E-2</v>
@@ -873,7 +874,7 @@
       </c>
       <c r="C3">
         <f ca="1">MAX(B3,C2,100-100/SQRT(B3)-RANDBETWEEN(0,10)+0.1*B3)</f>
-        <v>21.489321881345258</v>
+        <v>23.489321881345258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +887,7 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="1">MAX(B4,C3,100-100/SQRT(B4)-RANDBETWEEN(0,10)+0.1*B4)</f>
-        <v>40.564973081037415</v>
+        <v>42.564973081037415</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +900,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>40.564973081037415</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +913,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>48.778640450004211</v>
+        <v>50.778640450004211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +926,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>58.775170953613696</v>
+        <v>51.775170953613696</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +939,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>61.903552699077281</v>
+        <v>59.903552699077281</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +952,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>61.903552699077281</v>
+        <v>64.44466094067262</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +965,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>61.903552699077281</v>
+        <v>64.44466094067262</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,7 +978,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>65.377223398316204</v>
+        <v>67.377223398316204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +991,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>65.377223398316204</v>
+        <v>67.377223398316204</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +1004,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>70.332486540518715</v>
+        <v>71.332486540518715</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>72.564990188738548</v>
+        <v>71.332486540518715</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>72.564990188738548</v>
+        <v>74.673875808757572</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1043,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>72.564990188738548</v>
+        <v>74.673875808757572</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>72.564990188738548</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +1069,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>72.564990188738548</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,7 +1082,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>76.229773960448412</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1095,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>78.958426612943839</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,7 +1108,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>78.958426612943839</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1121,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>78.958426612943839</v>
+        <v>80.278210976400757</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,7 +1134,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>78.958426612943839</v>
+        <v>80.278210976400757</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,7 +1147,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>78.958426612943839</v>
+        <v>80.278210976400757</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>80.278210976400757</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,7 +1173,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>80.278210976400757</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,7 +1186,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1199,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1212,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1225,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1238,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>81.987585476806856</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>84.139469797322505</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1264,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>84.139469797322505</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1277,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>84.892234404430212</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1290,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>84.892234404430212</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,7 +1303,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>84.892234404430212</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1316,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>84.892234404430212</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1329,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>85.260101269464272</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1342,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>85.577857886923738</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +1355,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>87.887184619491293</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1368,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>87.887184619491293</v>
+        <v>82.988386486181582</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1381,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>87.887184619491293</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,7 +1394,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>87.887184619491293</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>87.887184619491293</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,7 +1420,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>89.32443277111183</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,7 +1433,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1446,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>86.482623811139391</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1472,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>87.366243270259346</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1485,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1498,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1511,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1524,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,7 +1537,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1550,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>89.614285714285714</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,7 +1563,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>89.592880150001406</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,7 +1576,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1589,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,7 +1602,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,7 +1615,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,7 +1628,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1641,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>91.016002750735154</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1654,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,7 +1667,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +1680,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>92.236937904378777</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,7 +1693,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>93.096526541079157</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1706,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>93.096526541079157</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,7 +1719,7 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C101" ca="1" si="3">MAX(B68,C67,100-100/SQRT(B68)-RANDBETWEEN(0,10)+0.1*B68)</f>
-        <v>93.096526541079157</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,7 +1732,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>94.673218748183345</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,7 +1745,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>94.673218748183345</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,7 +1758,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,7 +1771,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>93.499987299980958</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,7 +1784,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>95.41488698022421</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,7 +1797,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>95.41488698022421</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1810,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>95.41488698022421</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,7 +1823,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>95.047713906656071</v>
+        <v>95.41488698022421</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,7 +1836,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>95.129213306471911</v>
+        <v>95.41488698022421</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,7 +1849,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>95.129213306471911</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1862,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>95.129213306471911</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,7 +1875,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>95.129213306471911</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1888,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>95.129213306471911</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1901,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>95.98888888888888</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,7 +1914,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>95.98888888888888</v>
+        <v>96.303942354036209</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,7 +1927,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>95.98888888888888</v>
+        <v>97.323574001030963</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,7 +1940,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>95.98888888888888</v>
+        <v>97.323574001030963</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,7 +1953,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>96.653477109067197</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,7 +1966,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>96.653477109067197</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +1979,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>96.653477109067197</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,7 +1992,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2005,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2018,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,7 +2031,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2044,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,7 +2057,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,7 +2070,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,7 +2083,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,7 +2096,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,7 +2109,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>97.653477109067197</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,7 +2122,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>98.139964182219472</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,39 +2174,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2220,78 +2221,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>1-B2</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <f t="shared" ref="C3:C5" si="0">1-B3</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.8</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -2309,111 +2308,121 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <f>1-B2</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <f t="shared" ref="C3:C9" si="0">1-B3</f>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="C7">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -2426,97 +2435,107 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <f>1-B2</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <f t="shared" ref="C3:C8" si="0">1-B3</f>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="C4">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C6">
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
-        <v>0.22</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2548,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2558,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1">
         <v>2001</v>
@@ -2586,7 +2605,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>72</v>
@@ -2633,7 +2652,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -2680,7 +2699,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -2727,7 +2746,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -2774,7 +2793,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -2821,7 +2840,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -2868,7 +2887,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -2915,7 +2934,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -2962,7 +2981,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -3009,7 +3028,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -3056,7 +3075,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -3103,7 +3122,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3150,7 +3169,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -3197,7 +3216,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -3244,7 +3263,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3291,7 +3310,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -3338,7 +3357,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3385,7 +3404,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3432,7 +3451,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3479,7 +3498,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -3526,7 +3545,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -3573,7 +3592,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3620,7 +3639,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -3667,7 +3686,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -3714,7 +3733,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3761,7 +3780,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3808,7 +3827,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -3855,7 +3874,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -3902,7 +3921,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3949,7 +3968,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -3996,7 +4015,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -4043,7 +4062,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4090,7 +4109,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -4137,7 +4156,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4184,7 +4203,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -4231,7 +4250,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -4278,7 +4297,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -4325,7 +4344,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4372,7 +4391,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4428,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4442,30 +4461,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -4476,13 +4495,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -4493,13 +4512,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -4510,13 +4529,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>54</v>
@@ -4527,13 +4546,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -4544,13 +4563,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>46</v>
@@ -4561,13 +4580,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>78</v>
@@ -4578,13 +4597,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>64</v>
